--- a/mysql/数据库表.xlsx
+++ b/mysql/数据库表.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myq/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/demo/02.wz/ptadmin/mysql/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="5020" windowWidth="38400" windowHeight="19180" tabRatio="500"/>
+    <workbookView xWindow="14960" yWindow="720" windowWidth="38400" windowHeight="19180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="基础表" sheetId="2" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="3" r:id="rId2"/>
+    <sheet name="启凌" sheetId="3" r:id="rId2"/>
     <sheet name="功能表" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="166">
   <si>
     <t>字段名</t>
   </si>
@@ -471,32 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理表名</t>
-    <rPh sb="0" eb="1">
-      <t>guan'l</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>biao'ming</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ming'zi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理字段名</t>
-    <rPh sb="0" eb="1">
-      <t>guan'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zi'duan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ming</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2、fdc_business （商务合作表）</t>
     <rPh sb="16" eb="17">
       <t>shang'wu</t>
@@ -528,16 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、program（表管理）</t>
-    <rPh sb="10" eb="11">
-      <t>biao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>guan'l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ico</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -556,13 +520,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2、menu（菜单）</t>
-    <rPh sb="7" eb="8">
-      <t>cai'dan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -583,131 +540,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务角色标识</t>
-    <rPh sb="0" eb="1">
-      <t>ren'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jue'se</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>biao's</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断是否注册成功</t>
-    <rPh sb="0" eb="1">
-      <t>pan'duan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'fou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zu'ce</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>cheng'g</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、people（菜单）</t>
-    <rPh sb="9" eb="10">
-      <t>cai'dan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1、ql_admin（人员基础表）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（基础表）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mediumint(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <rPh sb="0" eb="1">
-      <t>zhu'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> lastloginip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（15）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录ip</t>
-    <rPh sb="0" eb="1">
-      <t>deng'l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastlogintime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录最后时间</t>
-    <rPh sb="0" eb="1">
-      <t>deng'l</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zui'h</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -722,35 +555,335 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>realname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（50）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实名字</t>
+    <t>e_mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务角色标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yzm</t>
+  </si>
+  <si>
+    <t>zuce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断是否注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgid</t>
+  </si>
+  <si>
+    <t>角色id</t>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip地址</t>
+  </si>
+  <si>
+    <t>last_login_time</t>
+  </si>
+  <si>
+    <t>最后登录时间</t>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fieldType</t>
+  </si>
+  <si>
+    <t>var(48)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fieldSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段大小</t>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>1、Column（表管理）</t>
+    <rPh sb="9" eb="10">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>guan'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>数据库编号</t>
+  </si>
+  <si>
+    <t>原则上基础表不管理，以免误删</t>
     <rPh sb="0" eb="1">
-      <t>zhen'shi</t>
+      <t>yuan'ze</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>ming'zi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>starus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint（1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
+      <t>shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi'mian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wu'shan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Columnid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(48)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段的html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>annotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在增加页面中起作用</t>
     <rPh sb="0" eb="1">
-      <t>zhuagn'tai</t>
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zeng'jai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ye'm</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zuo'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、DataType（字段类型）</t>
+    <rPh sb="11" eb="12">
+      <t>zi'duan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、program（表字段管理）</t>
+    <rPh sb="10" eb="11">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zi'duan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>guan'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、menu（菜单）</t>
+    <rPh sb="7" eb="8">
+      <t>cai'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、people（人员表）</t>
+    <rPh sb="9" eb="10">
+      <t>ren'yuan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、institutions（机构表）</t>
+    <rPh sb="15" eb="16">
+      <t>ji'gou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构名称</t>
+    <rPh sb="0" eb="1">
+      <t>ji'gou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>institutionsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构编号</t>
+    <rPh sb="0" eb="1">
+      <t>ji'gou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、e_admin（邮箱表）</t>
+    <rPh sb="10" eb="11">
+      <t>you'xiang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、SMS（短信表）</t>
+    <rPh sb="6" eb="7">
+      <t>duan'xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、graphics（图形表）</t>
+    <rPh sb="11" eb="12">
+      <t>tu'xing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非系统表输出原则上 myq_</t>
+    <rPh sb="0" eb="1">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yuan'ze</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加上前缀</t>
+    <rPh sb="0" eb="1">
+      <t>jia'shang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qian'zhui</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -759,7 +892,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -869,36 +1002,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="12.2"/>
+      <color rgb="FF000000"/>
+      <name val="Andalus"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -909,12 +1018,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF63AAFE"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="32"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1076,16 +1179,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1381,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="111" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1392,6 +1495,7 @@
     <col min="1" max="1" width="38.1640625" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -1409,12 +1513,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1430,111 +1536,113 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>96</v>
+        <v>136</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>97</v>
+      <c r="A5" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>112</v>
+      <c r="A6" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>103</v>
-      </c>
+    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>143</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>96</v>
+        <v>120</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>105</v>
+      <c r="A12" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>109</v>
+      <c r="A13" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -1545,12 +1653,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
+      <c r="A15" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -1566,239 +1674,401 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" t="s">
         <v>120</v>
       </c>
-      <c r="D26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="C37" t="s">
         <v>124</v>
       </c>
-      <c r="B28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>160</v>
+      </c>
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>160</v>
+      </c>
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>160</v>
+      </c>
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="5"/>
+    <row r="49" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="26"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="26"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A25:D25"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1806,12 +2076,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1970,12 +2319,12 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
+      <c r="A13" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -2098,12 +2447,12 @@
     </row>
     <row r="24" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
+      <c r="A25" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">

--- a/mysql/数据库表.xlsx
+++ b/mysql/数据库表.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14960" yWindow="720" windowWidth="38400" windowHeight="19180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19180" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="基础表" sheetId="2" r:id="rId1"/>
     <sheet name="启凌" sheetId="3" r:id="rId2"/>
-    <sheet name="功能表" sheetId="1" r:id="rId3"/>
+    <sheet name="亦忆" sheetId="1" r:id="rId3"/>
+    <sheet name="监控系统" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="184">
   <si>
     <t>字段名</t>
   </si>
@@ -64,16 +65,6 @@
     </r>
   </si>
   <si>
-    <t>1、fdc_people （人员表）</t>
-    <rPh sb="14" eb="15">
-      <t>ren'yuan</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>biao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -471,26 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2、fdc_business （商务合作表）</t>
-    <rPh sb="16" eb="17">
-      <t>shang'wu</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>he'zuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、fdc_house（房源信息表）</t>
-    <rPh sb="12" eb="13">
-      <t>fang'yuan</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>xin'xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>field_annotation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -771,13 +742,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、menu（菜单）</t>
-    <rPh sb="7" eb="8">
-      <t>cai'dan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4、people（人员表）</t>
     <rPh sb="9" eb="10">
       <t>ren'yuan</t>
@@ -808,10 +772,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>institutionsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>机构编号</t>
     <rPh sb="0" eb="1">
       <t>ji'gou</t>
@@ -856,28 +816,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>非系统表输出原则上 myq_</t>
-    <rPh sb="0" eb="1">
-      <t>fei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xi'tong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>biao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shu'chu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>yuan'ze</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加上前缀</t>
     <rPh sb="0" eb="1">
       <t>jia'shang</t>
@@ -885,6 +823,185 @@
     <rPh sb="2" eb="3">
       <t>qian'zhui</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app名称</t>
+    <rPh sb="3" eb="4">
+      <t>m'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误信息</t>
+    <rPh sb="0" eb="1">
+      <t>cuo'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>x'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信息</t>
+    <rPh sb="0" eb="1">
+      <t>she'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>behavior</t>
+  </si>
+  <si>
+    <t>行为</t>
+    <rPh sb="0" eb="1">
+      <t>xing'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、zmyq_error （报错表）</t>
+    <rPh sb="14" eb="15">
+      <t>bao'cuo</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、zmyq_userBehavior （用户行为表）</t>
+    <rPh sb="21" eb="22">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xing'wei</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、zmyq_menu（菜单）</t>
+    <rPh sb="12" eb="13">
+      <t>cai'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、zmyq_people （人员表）</t>
+    <rPh sb="15" eb="16">
+      <t>ren'yuan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、zmyq_business （商务合作表）</t>
+    <rPh sb="17" eb="18">
+      <t>shang'wu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>he'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、zmyq_house（房源信息表）</t>
+    <rPh sb="13" eb="14">
+      <t>fang'yuan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>institutionsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非系统表输出原则上 zmyq_</t>
+    <rPh sb="0" eb="1">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yuan'ze</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appTitle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,7 +1009,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1006,6 +1123,30 @@
       <color rgb="FF000000"/>
       <name val="Andalus"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Andalus"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Andalus"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1101,7 +1242,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1191,6 +1332,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1486,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="111" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView topLeftCell="A33" zoomScale="111" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1514,20 +1674,20 @@
     </row>
     <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1536,37 +1696,37 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -1578,7 +1738,7 @@
     </row>
     <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -1586,10 +1746,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -1598,51 +1758,51 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -1654,7 +1814,7 @@
     </row>
     <row r="15" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -1662,10 +1822,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -1674,85 +1834,85 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -1770,7 +1930,7 @@
     </row>
     <row r="26" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -1778,10 +1938,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -1790,122 +1950,122 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -1913,35 +2073,35 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1949,7 +2109,7 @@
     </row>
     <row r="44" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -1957,10 +2117,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>4</v>
@@ -1968,26 +2128,26 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -1995,10 +2155,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>4</v>
@@ -2006,26 +2166,26 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B52" s="5"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B53" s="5"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B54" s="5"/>
     </row>
     <row r="55" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -2033,10 +2193,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>4</v>
@@ -2044,28 +2204,28 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B58" s="5"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B59" s="5"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B60" s="5"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2079,7 +2239,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2106,7 +2266,7 @@
     </row>
     <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2114,10 +2274,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -2126,37 +2286,37 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -2171,7 +2331,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2198,7 +2358,7 @@
     </row>
     <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2206,10 +2366,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -2218,97 +2378,97 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -2319,19 +2479,19 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -2340,126 +2500,126 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
+      <c r="A25" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -2467,277 +2627,277 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2748,4 +2908,289 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+    </row>
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+    </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+    </row>
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mysql/数据库表.xlsx
+++ b/mysql/数据库表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19180" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="基础表" sheetId="2" r:id="rId1"/>
@@ -893,9 +893,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>behavior</t>
-  </si>
-  <si>
     <t>行为</t>
     <rPh sb="0" eb="1">
       <t>xing'wei</t>
@@ -1002,6 +999,10 @@
   </si>
   <si>
     <t>appTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>behavior</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2079,7 +2080,7 @@
         <v>22</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2087,7 +2088,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C41" t="s">
         <v>153</v>
@@ -2095,7 +2096,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>22</v>
@@ -2222,7 +2223,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B63" t="s">
         <v>159</v>
@@ -2266,7 +2267,7 @@
     </row>
     <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2358,7 +2359,7 @@
     </row>
     <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2480,7 +2481,7 @@
     </row>
     <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -2608,7 +2609,7 @@
     <row r="24" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -2915,7 +2916,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2927,7 +2928,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2941,7 +2942,7 @@
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -2961,7 +2962,7 @@
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>93</v>
@@ -3003,7 +3004,7 @@
     </row>
     <row r="8" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -3047,13 +3048,13 @@
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>93</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" s="34"/>
     </row>

--- a/mysql/数据库表.xlsx
+++ b/mysql/数据库表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="基础表" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="185">
   <si>
     <t>字段名</t>
   </si>
@@ -534,9 +534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yzm</t>
-  </si>
-  <si>
     <t>zuce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1003,6 +1000,17 @@
   </si>
   <si>
     <t>behavior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji'h</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1333,6 +1341,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1342,16 +1360,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1645,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="111" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="111" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1675,12 +1683,12 @@
     </row>
     <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1697,37 +1705,37 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -1739,7 +1747,7 @@
     </row>
     <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -1759,51 +1767,51 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -1815,7 +1823,7 @@
     </row>
     <row r="15" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -1853,7 +1861,7 @@
         <v>94</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="4"/>
     </row>
@@ -1865,31 +1873,31 @@
         <v>103</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -1907,13 +1915,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -1931,7 +1939,7 @@
     </row>
     <row r="26" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -1951,13 +1959,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="D28" s="4"/>
     </row>
@@ -2009,224 +2017,213 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B33" t="s">
         <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>113</v>
+      <c r="A34" t="s">
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>115</v>
+      <c r="A35" s="30" t="s">
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" t="s">
-        <v>107</v>
-      </c>
       <c r="C36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
         <v>120</v>
       </c>
-      <c r="B37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" t="s">
         <v>152</v>
-      </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="26"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C41" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>179</v>
-      </c>
-      <c r="B42" s="4" t="s">
+    <row r="42" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>155</v>
-      </c>
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="26"/>
+    <row r="48" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="26"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="5"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B52" s="5"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="26"/>
+    <row r="54" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="26"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="5"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B58" s="5"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>155</v>
-      </c>
-      <c r="B60" s="5"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>180</v>
-      </c>
-      <c r="B63" t="s">
-        <v>159</v>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2267,7 +2264,7 @@
     </row>
     <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2359,7 +2356,7 @@
     </row>
     <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2480,12 +2477,12 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -2608,12 +2605,12 @@
     </row>
     <row r="24" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
@@ -2915,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2928,7 +2925,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2942,253 +2939,253 @@
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="36" t="s">
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>163</v>
-      </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="34"/>
-    </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="C11" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="D11" s="31"/>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="34"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="34" t="s">
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="34"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>163</v>
+      <c r="C13" s="33" t="s">
+        <v>162</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
     </row>
     <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
     </row>
     <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
     </row>
     <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
     </row>
     <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
     </row>
     <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
     </row>
     <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
